--- a/TranslationTool/Config/翻译给回来的翻译表.xlsx
+++ b/TranslationTool/Config/翻译给回来的翻译表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>背包格子数量：</t>
   </si>
   <si>
-    <t>Bag space:谢谢谢谢</t>
+    <t>Bag space:</t>
   </si>
   <si>
     <t>黑市免费刷新次数：</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Noah Coins from travel:</t>
-  </si>
-  <si>
-    <t>Noah Coins from travel:学习相2</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1359,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1534,7 +1531,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TranslationTool/Config/翻译给回来的翻译表.xlsx
+++ b/TranslationTool/Config/翻译给回来的翻译表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>背包格子数量：</t>
   </si>
   <si>
-    <t>Bag space:</t>
+    <t>Bag space:谢谢谢谢</t>
   </si>
   <si>
     <t>黑市免费刷新次数：</t>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Noah Coins from travel:</t>
+  </si>
+  <si>
+    <t>Noah Coins from travel:学习相2</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1531,7 +1534,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
